--- a/data/trans_dic/P62A$viudedad-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P62A$viudedad-Edad-trans_dic.xlsx
@@ -773,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.08478245295489366</v>
+        <v>0.08478245295489369</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.1290742411699879</v>
@@ -819,7 +819,7 @@
       </c>
       <c r="M8" s="5" t="inlineStr"/>
       <c r="N8" s="5" t="n">
-        <v>0.0503644212566394</v>
+        <v>0.04863020692524708</v>
       </c>
     </row>
     <row r="9">
@@ -831,29 +831,29 @@
       </c>
       <c r="C9" s="5" t="inlineStr"/>
       <c r="D9" s="5" t="n">
-        <v>0.2487842402464431</v>
+        <v>0.2524695689659731</v>
       </c>
       <c r="E9" s="5" t="inlineStr"/>
       <c r="F9" s="5" t="n">
-        <v>0.7713877997176002</v>
+        <v>0.7860274016050159</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.518982338918214</v>
+        <v>0.5355622084512781</v>
       </c>
       <c r="H9" s="5" t="inlineStr"/>
       <c r="I9" s="5" t="inlineStr"/>
       <c r="J9" s="5" t="n">
-        <v>0.3678526838744818</v>
+        <v>0.3951632348869231</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3657305430280508</v>
+        <v>0.3658624181100917</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1198393181951264</v>
+        <v>0.1183929781411955</v>
       </c>
       <c r="M9" s="5" t="inlineStr"/>
       <c r="N9" s="5" t="n">
-        <v>0.4300286161629936</v>
+        <v>0.4245835463773756</v>
       </c>
     </row>
     <row r="10">
@@ -877,7 +877,7 @@
         <v>0.03165243998276975</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.3683189187883029</v>
+        <v>0.368318918788303</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.151207550509746</v>
@@ -901,7 +901,7 @@
         <v>0.07949306577283269</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.2743393512662775</v>
+        <v>0.2743393512662773</v>
       </c>
     </row>
     <row r="11">
@@ -917,31 +917,31 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1498287814655724</v>
+        <v>0.1563043996366521</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.04762286136898424</v>
+        <v>0</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.02176999701833254</v>
+        <v>0.02199844928048193</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.03197654384504396</v>
+        <v>0.03242587665565999</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.08602953300188346</v>
+        <v>0.09451955980368502</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02008193720186166</v>
+        <v>0.02079911614121449</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.003322610875650617</v>
+        <v>0.01008565853732557</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.03092692018979163</v>
+        <v>0.03147552774719092</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1634879210743545</v>
+        <v>0.164074074370685</v>
       </c>
     </row>
     <row r="12">
@@ -954,34 +954,34 @@
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="inlineStr"/>
       <c r="E12" s="5" t="n">
-        <v>0.1606536876804565</v>
+        <v>0.159713844450865</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.5967047041067363</v>
+        <v>0.6117792972287176</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3680060208275354</v>
+        <v>0.3202795195836027</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.200681018490332</v>
+        <v>0.1909454828114666</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2899933092329615</v>
+        <v>0.2907368751218093</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3492025067111859</v>
+        <v>0.3521732707011591</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1833373958258218</v>
+        <v>0.177753208524767</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.08344111395809876</v>
+        <v>0.09421948659239224</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1731437932375629</v>
+        <v>0.1726551722135046</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.400844608819774</v>
+        <v>0.406089938012381</v>
       </c>
     </row>
     <row r="13">
@@ -1017,7 +1017,7 @@
         <v>0.2446163896824128</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.2734164615219415</v>
+        <v>0.2734164615219416</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.1411201221757983</v>
@@ -1045,31 +1045,31 @@
       <c r="D14" s="5" t="inlineStr"/>
       <c r="E14" s="5" t="inlineStr"/>
       <c r="F14" s="5" t="n">
-        <v>0.3731536308259886</v>
+        <v>0.3581177159647228</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1526350757707403</v>
+        <v>0.1461567186082863</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1607801960978173</v>
+        <v>0.1619648856016472</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1256802475645561</v>
+        <v>0.1296501710749615</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1697647805252299</v>
+        <v>0.1773853446170388</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.08128836082931593</v>
+        <v>0.0790513732492889</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.07020532173307366</v>
+        <v>0.06909193339096774</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.04951871285299768</v>
+        <v>0.04897849169145497</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.3199703334259448</v>
+        <v>0.3192326688959897</v>
       </c>
     </row>
     <row r="15">
@@ -1080,36 +1080,36 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1180090101906285</v>
+        <v>0.1175124588673079</v>
       </c>
       <c r="D15" s="5" t="inlineStr"/>
       <c r="E15" s="5" t="inlineStr"/>
       <c r="F15" s="5" t="n">
-        <v>0.6395601668887299</v>
+        <v>0.6405407325339105</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4257378144493072</v>
+        <v>0.4195648992455295</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.432228773515841</v>
+        <v>0.4246626505114628</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3820613871993596</v>
+        <v>0.3757529364925941</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3849422198405228</v>
+        <v>0.3814877837440743</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2318391676928977</v>
+        <v>0.2270272854616715</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2016695509341166</v>
+        <v>0.1955585953649682</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1547611778265625</v>
+        <v>0.1539750591929973</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.4927993548769326</v>
+        <v>0.4935601992703244</v>
       </c>
     </row>
     <row r="16">
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.2951473416342237</v>
+        <v>0.2951473416342236</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.4505689356634394</v>
@@ -1157,7 +1157,7 @@
         <v>0.1068156966760951</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.2546038842630348</v>
+        <v>0.2546038842630347</v>
       </c>
     </row>
     <row r="17">
@@ -1171,31 +1171,31 @@
       <c r="D17" s="5" t="inlineStr"/>
       <c r="E17" s="5" t="inlineStr"/>
       <c r="F17" s="5" t="n">
-        <v>0.2316640791224026</v>
+        <v>0.2388815940125455</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.3332307020876586</v>
+        <v>0.3465332701529505</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3098472279117109</v>
+        <v>0.3153923103800236</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2077650196038673</v>
+        <v>0.2195086272764102</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1414443690679299</v>
+        <v>0.1395370723782208</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1072397068496236</v>
+        <v>0.1041342647681185</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.108256519234233</v>
+        <v>0.1077358299293689</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.07427970097192206</v>
+        <v>0.07473884237074489</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.21458818369928</v>
+        <v>0.2119321464168235</v>
       </c>
     </row>
     <row r="18">
@@ -1209,31 +1209,31 @@
       <c r="D18" s="5" t="inlineStr"/>
       <c r="E18" s="5" t="inlineStr"/>
       <c r="F18" s="5" t="n">
-        <v>0.3560930222070846</v>
+        <v>0.3735577301557358</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.5608112920383956</v>
+        <v>0.5656645133955412</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.5106719126960455</v>
+        <v>0.5170650129204307</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3884777772096917</v>
+        <v>0.3977708172080924</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2533333887699827</v>
+        <v>0.2588053556845115</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1976894936681113</v>
+        <v>0.1872517880869988</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1989650498382325</v>
+        <v>0.1961164865773054</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1455471034943451</v>
+        <v>0.146065913443704</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.3031362297320421</v>
+        <v>0.3035374250561901</v>
       </c>
     </row>
     <row r="19">
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.07705858249489594</v>
+        <v>0.07705858249489597</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.4718021629466843</v>
@@ -1299,31 +1299,31 @@
       </c>
       <c r="E20" s="5" t="inlineStr"/>
       <c r="F20" s="5" t="n">
-        <v>0.05501500458008855</v>
+        <v>0.05722543066717649</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.3985217641054175</v>
+        <v>0.4002745020612935</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.3274887318905725</v>
+        <v>0.3386963521463929</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.2258481421773732</v>
+        <v>0.2308290188255876</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.02740392779800553</v>
+        <v>0.02732759718438122</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1500574465154875</v>
+        <v>0.1462425713225607</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.1416117570991882</v>
+        <v>0.1428519441443742</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.09536118123956187</v>
+        <v>0.09294342066405632</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.04902457958693691</v>
+        <v>0.04806555281600124</v>
       </c>
     </row>
     <row r="21">
@@ -1334,38 +1334,38 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.01901477843314037</v>
+        <v>0.0204218754756773</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.0332552725076975</v>
+        <v>0.03439653781199995</v>
       </c>
       <c r="E21" s="5" t="inlineStr"/>
       <c r="F21" s="5" t="n">
-        <v>0.1041601957139866</v>
+        <v>0.104054667093445</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.5464158098385502</v>
+        <v>0.5458583873472251</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.4573982405415452</v>
+        <v>0.4625557115987136</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.3456926713821508</v>
+        <v>0.3491815459318376</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.0656448826819621</v>
+        <v>0.06819221613012416</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2217849531630087</v>
+        <v>0.2214579785615209</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.2055569121828573</v>
+        <v>0.2063696874924475</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1515374108039521</v>
+        <v>0.1495879140249973</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.08076863148777451</v>
+        <v>0.08096014855509835</v>
       </c>
     </row>
     <row r="22">
@@ -1427,31 +1427,31 @@
       <c r="D23" s="5" t="inlineStr"/>
       <c r="E23" s="5" t="inlineStr"/>
       <c r="F23" s="5" t="n">
-        <v>0.04173981344893257</v>
+        <v>0.04097936126875416</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.5282733638787709</v>
+        <v>0.5348922246966338</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.5334616446631304</v>
+        <v>0.5382219318999553</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.4417689443197637</v>
+        <v>0.441342435809472</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.02672746510677578</v>
+        <v>0.02511278052624996</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.2812749657368072</v>
+        <v>0.2824169979057206</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.282861039920744</v>
+        <v>0.2791147771741632</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.2310768221115447</v>
+        <v>0.2296067711698694</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.03731215148263088</v>
+        <v>0.03753922996951242</v>
       </c>
     </row>
     <row r="24">
@@ -1465,31 +1465,31 @@
       <c r="D24" s="5" t="inlineStr"/>
       <c r="E24" s="5" t="inlineStr"/>
       <c r="F24" s="5" t="n">
-        <v>0.08493313389901093</v>
+        <v>0.08627548097663189</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.6594641177851577</v>
+        <v>0.6584620643776287</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.6520239034291163</v>
+        <v>0.6523510548240211</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.576640714202963</v>
+        <v>0.576912854398798</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.05628293780336987</v>
+        <v>0.05379912671623374</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.3707613475218846</v>
+        <v>0.3733141896596091</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.3657831202517735</v>
+        <v>0.366765518198768</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.3157342608542874</v>
+        <v>0.3139288938816001</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.06283087255436444</v>
+        <v>0.06377961762730353</v>
       </c>
     </row>
     <row r="25">
@@ -1557,31 +1557,31 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.133099822047573</v>
+        <v>0.1332956948280558</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.4490928486730577</v>
+        <v>0.4501747203678709</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.3992711410524238</v>
+        <v>0.397207912069667</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.3216843490575569</v>
+        <v>0.3210665372715517</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.068085688890598</v>
+        <v>0.06788268594634835</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.1946335309514557</v>
+        <v>0.1926812353733689</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.1809168995807804</v>
+        <v>0.1813541235031616</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.1422545171796998</v>
+        <v>0.1429257416531619</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.1069552107244587</v>
+        <v>0.1069449675918613</v>
       </c>
     </row>
     <row r="27">
@@ -1592,40 +1592,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.009528505820974182</v>
+        <v>0.01009954173770025</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.01522916494479359</v>
+        <v>0.01285292768263695</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.005190194607655351</v>
+        <v>0.005216628027771099</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.1787948652050609</v>
+        <v>0.1789659063550549</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.5345852155108695</v>
+        <v>0.5330574690076794</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.4729422009320348</v>
+        <v>0.47278775187846</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.3969721704478334</v>
+        <v>0.3974006502527034</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.09944979418986008</v>
+        <v>0.09814593360435141</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.2408313748449762</v>
+        <v>0.2411003927838093</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.2216964280656009</v>
+        <v>0.2217693350566452</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.183413171121515</v>
+        <v>0.1821534292901136</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.1344051647187526</v>
+        <v>0.1357049316735988</v>
       </c>
     </row>
     <row r="28">
@@ -2054,7 +2054,7 @@
       </c>
       <c r="M10" s="6" t="inlineStr"/>
       <c r="N10" s="6" t="n">
-        <v>1083</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="11">
@@ -2066,29 +2066,29 @@
       </c>
       <c r="C11" s="6" t="inlineStr"/>
       <c r="D11" s="6" t="n">
-        <v>4167</v>
+        <v>4229</v>
       </c>
       <c r="E11" s="6" t="inlineStr"/>
       <c r="F11" s="6" t="n">
-        <v>6450</v>
+        <v>6573</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>5595</v>
+        <v>5773</v>
       </c>
       <c r="H11" s="6" t="inlineStr"/>
       <c r="I11" s="6" t="inlineStr"/>
       <c r="J11" s="6" t="n">
-        <v>4836</v>
+        <v>5195</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>5854</v>
+        <v>5856</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>4923</v>
+        <v>4864</v>
       </c>
       <c r="M11" s="6" t="inlineStr"/>
       <c r="N11" s="6" t="n">
-        <v>9249</v>
+        <v>9132</v>
       </c>
     </row>
     <row r="12">
@@ -2196,31 +2196,31 @@
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>3122</v>
+        <v>3257</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>919</v>
+        <v>0</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>864</v>
+        <v>873</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>916</v>
+        <v>929</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>2403</v>
+        <v>2640</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>891</v>
+        <v>923</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>287</v>
+        <v>871</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>1799</v>
+        <v>1831</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>7973</v>
+        <v>8001</v>
       </c>
     </row>
     <row r="15">
@@ -2233,34 +2233,34 @@
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="n">
-        <v>4743</v>
+        <v>4716</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>12432</v>
+        <v>12746</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>7098</v>
+        <v>6177</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>7960</v>
+        <v>7574</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>8307</v>
+        <v>8329</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>9754</v>
+        <v>9837</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>8132</v>
+        <v>7884</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>7208</v>
+        <v>8140</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>10072</v>
+        <v>10044</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>19548</v>
+        <v>19804</v>
       </c>
     </row>
     <row r="16">
@@ -2368,31 +2368,31 @@
       <c r="D18" s="6" t="inlineStr"/>
       <c r="E18" s="6" t="inlineStr"/>
       <c r="F18" s="6" t="n">
-        <v>22656</v>
+        <v>21743</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>6267</v>
+        <v>6001</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>8784</v>
+        <v>8849</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>5950</v>
+        <v>6138</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>7592</v>
+        <v>7933</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>7060</v>
+        <v>6866</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>9159</v>
+        <v>9014</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>6247</v>
+        <v>6179</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>33737</v>
+        <v>33659</v>
       </c>
     </row>
     <row r="19">
@@ -2403,36 +2403,36 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>5404</v>
+        <v>5381</v>
       </c>
       <c r="D19" s="6" t="inlineStr"/>
       <c r="E19" s="6" t="inlineStr"/>
       <c r="F19" s="6" t="n">
-        <v>38832</v>
+        <v>38891</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>17481</v>
+        <v>17228</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>23615</v>
+        <v>23201</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>18087</v>
+        <v>17788</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>17215</v>
+        <v>17061</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>20136</v>
+        <v>19718</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>26310</v>
+        <v>25513</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>19524</v>
+        <v>19425</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>51960</v>
+        <v>52040</v>
       </c>
     </row>
     <row r="20">
@@ -2538,31 +2538,31 @@
       <c r="D22" s="6" t="inlineStr"/>
       <c r="E22" s="6" t="inlineStr"/>
       <c r="F22" s="6" t="n">
-        <v>41590</v>
+        <v>42886</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>26634</v>
+        <v>27697</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>29669</v>
+        <v>30200</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>23061</v>
+        <v>24364</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>16604</v>
+        <v>16381</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>26674</v>
+        <v>25902</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>29140</v>
+        <v>29000</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>23123</v>
+        <v>23266</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>63716</v>
+        <v>62927</v>
       </c>
     </row>
     <row r="23">
@@ -2576,31 +2576,31 @@
       <c r="D23" s="6" t="inlineStr"/>
       <c r="E23" s="6" t="inlineStr"/>
       <c r="F23" s="6" t="n">
-        <v>63929</v>
+        <v>67064</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>44824</v>
+        <v>45212</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>48899</v>
+        <v>49511</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>43119</v>
+        <v>44150</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>29739</v>
+        <v>30382</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>49172</v>
+        <v>46576</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>53557</v>
+        <v>52790</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>45308</v>
+        <v>45470</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>90007</v>
+        <v>90126</v>
       </c>
     </row>
     <row r="24">
@@ -2710,31 +2710,31 @@
       </c>
       <c r="E26" s="6" t="inlineStr"/>
       <c r="F26" s="6" t="n">
-        <v>18242</v>
+        <v>18975</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>70434</v>
+        <v>70744</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>73875</v>
+        <v>76403</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>52860</v>
+        <v>54026</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>6820</v>
+        <v>6801</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>69389</v>
+        <v>67624</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>75232</v>
+        <v>75890</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>53146</v>
+        <v>51799</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>28457</v>
+        <v>27900</v>
       </c>
     </row>
     <row r="27">
@@ -2745,38 +2745,38 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>5432</v>
+        <v>5834</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>10165</v>
+        <v>10514</v>
       </c>
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="n">
-        <v>34538</v>
+        <v>34503</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>96573</v>
+        <v>96474</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>103180</v>
+        <v>104343</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>80910</v>
+        <v>81727</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>16337</v>
+        <v>16971</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>102556</v>
+        <v>102405</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>109203</v>
+        <v>109634</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>84454</v>
+        <v>83368</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>46883</v>
+        <v>46994</v>
       </c>
     </row>
     <row r="28">
@@ -2882,31 +2882,31 @@
       <c r="D30" s="6" t="inlineStr"/>
       <c r="E30" s="6" t="inlineStr"/>
       <c r="F30" s="6" t="n">
-        <v>11340</v>
+        <v>11133</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>130644</v>
+        <v>132281</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>158138</v>
+        <v>159549</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>129235</v>
+        <v>129110</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>9318</v>
+        <v>8755</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>127609</v>
+        <v>128128</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>154223</v>
+        <v>152181</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>125461</v>
+        <v>124663</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>23145</v>
+        <v>23285</v>
       </c>
     </row>
     <row r="31">
@@ -2920,31 +2920,31 @@
       <c r="D31" s="6" t="inlineStr"/>
       <c r="E31" s="6" t="inlineStr"/>
       <c r="F31" s="6" t="n">
-        <v>23074</v>
+        <v>23439</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>163088</v>
+        <v>162840</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>193285</v>
+        <v>193382</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>168690</v>
+        <v>168770</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>19621</v>
+        <v>18756</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>168208</v>
+        <v>169366</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>199435</v>
+        <v>199970</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>171425</v>
+        <v>170445</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>38974</v>
+        <v>39562</v>
       </c>
     </row>
     <row r="32">
@@ -3056,31 +3056,31 @@
         <v>0</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>116389</v>
+        <v>116560</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>258716</v>
+        <v>259339</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>297891</v>
+        <v>296351</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>237095</v>
+        <v>236640</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>54731</v>
+        <v>54567</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>255741</v>
+        <v>253176</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>292579</v>
+        <v>293286</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>233052</v>
+        <v>234152</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>179503</v>
+        <v>179486</v>
       </c>
     </row>
     <row r="35">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>7031</v>
+        <v>7452</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>13266</v>
+        <v>11196</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>4678</v>
+        <v>4701</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>156347</v>
+        <v>156497</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>307967</v>
+        <v>307087</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>352856</v>
+        <v>352740</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>292585</v>
+        <v>292901</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>79943</v>
+        <v>78894</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>316443</v>
+        <v>316797</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>358528</v>
+        <v>358646</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>300481</v>
+        <v>298417</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>225572</v>
+        <v>227753</v>
       </c>
     </row>
     <row r="36">
